--- a/casualty_rates.xlsx
+++ b/casualty_rates.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="15">
   <si>
     <t>motorway</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>london</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -135,16 +138,16 @@
         <v>425.07346863563527</v>
       </c>
       <c r="C2" t="n">
-        <v>756.6344774327692</v>
+        <v>819.6873505521668</v>
       </c>
       <c r="D2" t="n">
-        <v>646.3657306083638</v>
+        <v>718.8032693834391</v>
       </c>
       <c r="E2" t="n">
-        <v>1052.8161071382142</v>
+        <v>1094.1030133004972</v>
       </c>
       <c r="F2" t="n">
-        <v>2046.5969743186552</v>
+        <v>2300.157661402382</v>
       </c>
     </row>
     <row r="3">
@@ -152,19 +155,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>172.92878678122182</v>
+        <v>193.2733499319538</v>
       </c>
       <c r="C3" t="n">
-        <v>1102.0558422664476</v>
+        <v>1176.143629981839</v>
       </c>
       <c r="D3" t="n">
-        <v>588.7493391975854</v>
+        <v>723.0255042777366</v>
       </c>
       <c r="E3" t="n">
-        <v>392.322038730521</v>
+        <v>411.77602412211706</v>
       </c>
       <c r="F3" t="n">
-        <v>518.0896441240287</v>
+        <v>550.4702468817804</v>
       </c>
     </row>
     <row r="4">
@@ -175,16 +178,16 @@
         <v>146.61643538718158</v>
       </c>
       <c r="C4" t="n">
-        <v>1984.5190336848789</v>
+        <v>2013.7031371214214</v>
       </c>
       <c r="D4" t="n">
-        <v>1573.8604751602913</v>
+        <v>1768.2785338565625</v>
       </c>
       <c r="E4" t="n">
-        <v>1056.1954092135365</v>
+        <v>1095.4957035098541</v>
       </c>
       <c r="F4" t="n">
-        <v>932.2454590099317</v>
+        <v>965.2452982669204</v>
       </c>
     </row>
     <row r="5">
@@ -192,19 +195,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>248.70634727288294</v>
+        <v>266.4710863638032</v>
       </c>
       <c r="C5" t="n">
-        <v>2325.103948769013</v>
+        <v>2452.856912987091</v>
       </c>
       <c r="D5" t="n">
-        <v>1196.1244574691718</v>
+        <v>1407.2052440813786</v>
       </c>
       <c r="E5" t="n">
-        <v>1262.9468057895801</v>
+        <v>1367.5909696978597</v>
       </c>
       <c r="F5" t="n">
-        <v>665.3927668821124</v>
+        <v>743.6742688682433</v>
       </c>
     </row>
     <row r="6">
@@ -215,16 +218,16 @@
         <v>291.6122263091676</v>
       </c>
       <c r="C6" t="n">
-        <v>1787.6291461039082</v>
+        <v>1860.593601046925</v>
       </c>
       <c r="D6" t="n">
-        <v>1297.7269639847564</v>
+        <v>1519.2901041772755</v>
       </c>
       <c r="E6" t="n">
-        <v>1510.3856981286253</v>
+        <v>1561.2159860464158</v>
       </c>
       <c r="F6" t="n">
-        <v>1417.3674112681042</v>
+        <v>1480.8316237129447</v>
       </c>
     </row>
     <row r="7">
@@ -235,16 +238,16 @@
         <v>321.8844294744341</v>
       </c>
       <c r="C7" t="n">
-        <v>2165.780045621834</v>
+        <v>2292.303278527577</v>
       </c>
       <c r="D7" t="n">
-        <v>1498.4739951778229</v>
+        <v>1703.744405476155</v>
       </c>
       <c r="E7" t="n">
-        <v>2005.0459497855627</v>
+        <v>2071.5640618637567</v>
       </c>
       <c r="F7" t="n">
-        <v>1799.851546992075</v>
+        <v>1879.4909959740255</v>
       </c>
     </row>
     <row r="8">
@@ -252,19 +255,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>227.52141664265798</v>
+        <v>248.20518179199053</v>
       </c>
       <c r="C8" t="n">
-        <v>2457.4528687024444</v>
+        <v>2555.750983450542</v>
       </c>
       <c r="D8" t="n">
-        <v>1425.0995051452712</v>
+        <v>1520.1061388216226</v>
       </c>
       <c r="E8" t="n">
-        <v>1337.5629682650904</v>
+        <v>1403.1059812290785</v>
       </c>
       <c r="F8" t="n">
-        <v>1760.2990646633132</v>
+        <v>1901.122989836378</v>
       </c>
     </row>
     <row r="9">
@@ -275,16 +278,16 @@
         <v>314.54653177634134</v>
       </c>
       <c r="C9" t="n">
-        <v>2377.280047690886</v>
+        <v>2474.5324132782403</v>
       </c>
       <c r="D9" t="n">
-        <v>1338.5166666200403</v>
+        <v>1429.7791666168614</v>
       </c>
       <c r="E9" t="n">
-        <v>1463.2354827936629</v>
+        <v>1531.978089367862</v>
       </c>
       <c r="F9" t="n">
-        <v>1939.9617070098593</v>
+        <v>2121.833117042034</v>
       </c>
     </row>
     <row r="10">
@@ -292,19 +295,39 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>120.46215607332923</v>
+        <v>130.50066907944</v>
       </c>
       <c r="C10" t="n">
-        <v>1010.9211242200322</v>
+        <v>1063.2023771890576</v>
       </c>
       <c r="D10" t="n">
-        <v>476.2853250684623</v>
+        <v>526.0464784338241</v>
       </c>
       <c r="E10" t="n">
-        <v>657.1537071019154</v>
+        <v>687.5841985002401</v>
       </c>
       <c r="F10" t="n">
-        <v>1587.760812749315</v>
+        <v>1905.3129752991779</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>242.01295818049084</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1340.0998175344753</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1105.928902704041</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1030.3764834911676</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1312.5862927534056</v>
       </c>
     </row>
   </sheetData>
@@ -343,19 +366,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>3.1710761413060258</v>
+        <v>4.439506597828435</v>
       </c>
       <c r="C2" t="n">
-        <v>11.15857605055659</v>
+        <v>11.774693746599594</v>
       </c>
       <c r="D2" t="n">
-        <v>10.757628521630723</v>
+        <v>12.256642332021888</v>
       </c>
       <c r="E2" t="n">
-        <v>9.286856907916038</v>
+        <v>9.510636592444136</v>
       </c>
       <c r="F2" t="n">
-        <v>34.90739589931412</v>
+        <v>39.94055530805243</v>
       </c>
     </row>
     <row r="3">
@@ -363,19 +386,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3.780056132152432</v>
+        <v>4.111640003393874</v>
       </c>
       <c r="C3" t="n">
-        <v>7.798307602393571</v>
+        <v>9.17447953222773</v>
       </c>
       <c r="D3" t="n">
-        <v>15.416402806731366</v>
+        <v>18.265085934062164</v>
       </c>
       <c r="E3" t="n">
-        <v>8.337639624645075</v>
+        <v>9.335305904517135</v>
       </c>
       <c r="F3" t="n">
-        <v>19.688980881059116</v>
+        <v>21.564121917350462</v>
       </c>
     </row>
     <row r="4">
@@ -383,19 +406,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4.676436512073998</v>
+        <v>4.936238540522553</v>
       </c>
       <c r="C4" t="n">
-        <v>19.11174860353704</v>
+        <v>19.866159732624027</v>
       </c>
       <c r="D4" t="n">
-        <v>31.46645673525426</v>
+        <v>35.45622278063338</v>
       </c>
       <c r="E4" t="n">
-        <v>24.318234332927293</v>
+        <v>25.088495148902364</v>
       </c>
       <c r="F4" t="n">
-        <v>47.97474925622772</v>
+        <v>54.038472210546466</v>
       </c>
     </row>
     <row r="5">
@@ -403,19 +426,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>4.215266006331712</v>
+        <v>4.759171297471287</v>
       </c>
       <c r="C5" t="n">
-        <v>15.741163238009662</v>
+        <v>17.156099259403785</v>
       </c>
       <c r="D5" t="n">
-        <v>13.776953442436643</v>
+        <v>16.881619006929405</v>
       </c>
       <c r="E5" t="n">
-        <v>12.978729629179625</v>
+        <v>13.921318931857476</v>
       </c>
       <c r="F5" t="n">
-        <v>21.120309105408303</v>
+        <v>24.793406341131487</v>
       </c>
     </row>
     <row r="6">
@@ -423,19 +446,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>4.318172380685226</v>
+        <v>5.227261302934748</v>
       </c>
       <c r="C6" t="n">
-        <v>17.422744912326063</v>
+        <v>18.874640321686574</v>
       </c>
       <c r="D6" t="n">
-        <v>30.35431874616591</v>
+        <v>35.147105916613164</v>
       </c>
       <c r="E6" t="n">
-        <v>20.04064232275077</v>
+        <v>21.27264902291987</v>
       </c>
       <c r="F6" t="n">
-        <v>41.257384468308004</v>
+        <v>46.5727530194397</v>
       </c>
     </row>
     <row r="7">
@@ -443,19 +466,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>6.844420685482968</v>
+        <v>7.57034409151904</v>
       </c>
       <c r="C7" t="n">
-        <v>23.45292854095327</v>
+        <v>24.929384090746936</v>
       </c>
       <c r="D7" t="n">
-        <v>27.156383929008907</v>
+        <v>30.58666400425214</v>
       </c>
       <c r="E7" t="n">
-        <v>25.653377468532664</v>
+        <v>27.262809895265704</v>
       </c>
       <c r="F7" t="n">
-        <v>51.34481156727576</v>
+        <v>55.528462880164895</v>
       </c>
     </row>
     <row r="8">
@@ -463,19 +486,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>4.498592957030226</v>
+        <v>5.098405351300922</v>
       </c>
       <c r="C8" t="n">
-        <v>26.86876720825191</v>
+        <v>28.93190469031411</v>
       </c>
       <c r="D8" t="n">
-        <v>18.6897488452243</v>
+        <v>21.267645237669033</v>
       </c>
       <c r="E8" t="n">
-        <v>21.393399664845813</v>
+        <v>22.794157976234523</v>
       </c>
       <c r="F8" t="n">
-        <v>49.63456132860067</v>
+        <v>54.4601436799924</v>
       </c>
     </row>
     <row r="9">
@@ -483,19 +506,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>7.669566801376933</v>
+        <v>8.495520149217525</v>
       </c>
       <c r="C9" t="n">
-        <v>23.88974571250138</v>
+        <v>25.176735380514923</v>
       </c>
       <c r="D9" t="n">
-        <v>26.10254278445483</v>
+        <v>28.978246650538836</v>
       </c>
       <c r="E9" t="n">
-        <v>27.66115275025379</v>
+        <v>28.4385153568183</v>
       </c>
       <c r="F9" t="n">
-        <v>71.43942656064664</v>
+        <v>74.57962113474099</v>
       </c>
     </row>
     <row r="10">
@@ -503,19 +526,39 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>6.244273948956455</v>
+        <v>6.732107851218679</v>
       </c>
       <c r="C10" t="n">
-        <v>20.885271686720245</v>
+        <v>21.853741946386705</v>
       </c>
       <c r="D10" t="n">
-        <v>14.181116905376571</v>
+        <v>16.718790456865012</v>
       </c>
       <c r="E10" t="n">
-        <v>18.453570689620147</v>
+        <v>19.424811252231734</v>
       </c>
       <c r="F10" t="n">
-        <v>70.46302455001648</v>
+        <v>82.71746360219328</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.662151839317009</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.102035288531425</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.0613393568188</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.597736119350287</v>
+      </c>
+      <c r="F11" t="n">
+        <v>45.42617917245475</v>
       </c>
     </row>
   </sheetData>
@@ -557,16 +600,16 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1355.3488726604965</v>
+        <v>1406.8178171919078</v>
       </c>
       <c r="D2" t="n">
-        <v>1065.8781390124166</v>
+        <v>1135.3919306871394</v>
       </c>
       <c r="E2" t="n">
-        <v>323.8008799304162</v>
+        <v>331.10465917696695</v>
       </c>
       <c r="F2" t="n">
-        <v>457.0874073878096</v>
+        <v>468.2358807387318</v>
       </c>
     </row>
     <row r="3">
@@ -577,16 +620,16 @@
         <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>968.9100617887707</v>
+        <v>977.7991449244475</v>
       </c>
       <c r="D3" t="n">
-        <v>889.327896484462</v>
+        <v>1067.1934757813547</v>
       </c>
       <c r="E3" t="n">
-        <v>419.03209055087507</v>
+        <v>428.77702288926747</v>
       </c>
       <c r="F3" t="n">
-        <v>967.5691975509802</v>
+        <v>1057.5756345324667</v>
       </c>
     </row>
     <row r="4">
@@ -597,16 +640,16 @@
         <v>#N/A</v>
       </c>
       <c r="C4" t="n">
-        <v>2321.899930058041</v>
+        <v>2438.9705147668496</v>
       </c>
       <c r="D4" t="n">
-        <v>1734.0029117425188</v>
+        <v>1950.7532757103338</v>
       </c>
       <c r="E4" t="n">
-        <v>412.12899601966876</v>
+        <v>421.66901907567956</v>
       </c>
       <c r="F4" t="n">
-        <v>406.6240303177227</v>
+        <v>427.6563077479497</v>
       </c>
     </row>
     <row r="5">
@@ -617,13 +660,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C5" t="n">
-        <v>1410.3352548844168</v>
+        <v>1446.7645788113207</v>
       </c>
       <c r="D5" t="n">
         <v>1088.0437493821573</v>
       </c>
       <c r="E5" t="n">
-        <v>358.48732381943597</v>
+        <v>369.56029135053825</v>
       </c>
       <c r="F5" t="n">
         <v>438.5457831036734</v>
@@ -637,16 +680,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C6" t="n">
-        <v>1906.13256373679</v>
+        <v>1928.8246180669898</v>
       </c>
       <c r="D6" t="n">
         <v>1439.8223096053534</v>
       </c>
       <c r="E6" t="n">
-        <v>379.5513857376546</v>
+        <v>384.51284176036904</v>
       </c>
       <c r="F6" t="n">
-        <v>477.6661687153128</v>
+        <v>512.617351792043</v>
       </c>
     </row>
     <row r="7">
@@ -657,16 +700,16 @@
         <v>#N/A</v>
       </c>
       <c r="C7" t="n">
-        <v>3005.569470918155</v>
+        <v>3040.790988155477</v>
       </c>
       <c r="D7" t="n">
-        <v>1543.6447348575655</v>
+        <v>1620.8269716004436</v>
       </c>
       <c r="E7" t="n">
-        <v>1224.6206180526947</v>
+        <v>1228.702686779537</v>
       </c>
       <c r="F7" t="n">
-        <v>1264.0427500469928</v>
+        <v>1323.2947539554457</v>
       </c>
     </row>
     <row r="8">
@@ -677,13 +720,13 @@
         <v>#N/A</v>
       </c>
       <c r="C8" t="n">
-        <v>2797.7655508638413</v>
+        <v>2981.829073946989</v>
       </c>
       <c r="D8" t="n">
         <v>2737.1354115576146</v>
       </c>
       <c r="E8" t="n">
-        <v>486.81993923958277</v>
+        <v>499.3381662486006</v>
       </c>
       <c r="F8" t="n">
         <v>770.6087329174605</v>
@@ -697,16 +740,16 @@
         <v>#N/A</v>
       </c>
       <c r="C9" t="n">
-        <v>2838.7624990733298</v>
+        <v>2932.8651233520036</v>
       </c>
       <c r="D9" t="n">
-        <v>2060.1398403877506</v>
+        <v>2212.7427915275834</v>
       </c>
       <c r="E9" t="n">
-        <v>925.9850079992226</v>
+        <v>942.0055098677212</v>
       </c>
       <c r="F9" t="n">
-        <v>2126.1812223393713</v>
+        <v>2188.715964172882</v>
       </c>
     </row>
     <row r="10">
@@ -717,16 +760,36 @@
         <v>#N/A</v>
       </c>
       <c r="C10" t="n">
-        <v>1107.6543332915312</v>
+        <v>1142.8179629198337</v>
       </c>
       <c r="D10" t="n">
-        <v>463.62968100705723</v>
+        <v>478.1181085385278</v>
       </c>
       <c r="E10" t="n">
-        <v>589.4584556214206</v>
+        <v>597.1676708357853</v>
       </c>
       <c r="F10" t="n">
-        <v>2499.0661410247885</v>
+        <v>2698.991432306772</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>240326.84450853162</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1385.806699391706</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1217.1282712300729</v>
+      </c>
+      <c r="E11" t="n">
+        <v>536.6972659980182</v>
+      </c>
+      <c r="F11" t="n">
+        <v>711.7484099279312</v>
       </c>
     </row>
   </sheetData>
@@ -771,10 +834,10 @@
         <v>117.60508364122065</v>
       </c>
       <c r="D2" t="n">
-        <v>22.893151014980855</v>
+        <v>27.471781217977025</v>
       </c>
       <c r="E2" t="n">
-        <v>91.99944779098423</v>
+        <v>93.99943578644042</v>
       </c>
       <c r="F2" t="n">
         <v>114.92025451871517</v>
@@ -791,10 +854,10 @@
         <v>79.47891984219682</v>
       </c>
       <c r="D3" t="n">
-        <v>54.81419023828256</v>
+        <v>73.08558698437676</v>
       </c>
       <c r="E3" t="n">
-        <v>12.907556893777276</v>
+        <v>21.51259482296213</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -811,7 +874,7 @@
         <v>136.13114817418094</v>
       </c>
       <c r="D4" t="n">
-        <v>105.44913163287397</v>
+        <v>117.1657018143044</v>
       </c>
       <c r="E4" t="n">
         <v>129.99967721973462</v>
@@ -828,13 +891,13 @@
         <v>40.16660585944622</v>
       </c>
       <c r="C5" t="n">
-        <v>55.40324137885642</v>
+        <v>57.81207796054583</v>
       </c>
       <c r="D5" t="n">
         <v>16.75821391318978</v>
       </c>
       <c r="E5" t="n">
-        <v>44.31332547740032</v>
+        <v>58.307007207105684</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -865,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>307.7225464398149</v>
+        <v>319.55802899519244</v>
       </c>
       <c r="C7" t="n">
         <v>103.20221763845505</v>
@@ -874,7 +937,7 @@
         <v>65.01341749692988</v>
       </c>
       <c r="E7" t="n">
-        <v>163.40364569036973</v>
+        <v>170.0731822491603</v>
       </c>
       <c r="F7" t="n">
         <v>52.7701645788617</v>
@@ -885,16 +948,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>34.34049660066859</v>
+        <v>51.51074490100287</v>
       </c>
       <c r="C8" t="n">
-        <v>47.279984909641016</v>
+        <v>55.6235116584012</v>
       </c>
       <c r="D8" t="n">
         <v>41.396808106519316</v>
       </c>
       <c r="E8" t="n">
-        <v>39.446955951299</v>
+        <v>46.02144860984884</v>
       </c>
       <c r="F8" t="n">
         <v>124.43613610999807</v>
@@ -911,7 +974,7 @@
         <v>119.52350074859729</v>
       </c>
       <c r="D9" t="n">
-        <v>78.05295595708607</v>
+        <v>104.07060794278141</v>
       </c>
       <c r="E9" t="n">
         <v>82.74279461266502</v>
@@ -928,16 +991,36 @@
         <v>27.4317282405068</v>
       </c>
       <c r="C10" t="n">
-        <v>170.33987373187472</v>
+        <v>172.87595125641874</v>
       </c>
       <c r="D10" t="n">
         <v>85.83612380029977</v>
       </c>
       <c r="E10" t="n">
-        <v>139.24323618964127</v>
+        <v>141.77493139308928</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78.80881074584813</v>
+      </c>
+      <c r="C11" t="n">
+        <v>134.04086976904614</v>
+      </c>
+      <c r="D11" t="n">
+        <v>56.25172449406598</v>
+      </c>
+      <c r="E11" t="n">
+        <v>91.12692216096414</v>
+      </c>
+      <c r="F11" t="n">
+        <v>63.92500985412709</v>
       </c>
     </row>
   </sheetData>
@@ -976,13 +1059,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1.1551157359981483</v>
+        <v>2.3102314719962966</v>
       </c>
       <c r="C2" t="n">
         <v>1.7325408064268908</v>
       </c>
       <c r="D2" t="n">
-        <v>4.029666752755717</v>
+        <v>4.281520924802949</v>
       </c>
       <c r="E2" t="n">
         <v>2.3976628380246328</v>
@@ -996,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8622103371662184</v>
+        <v>1.2933155057493277</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -1008,7 +1091,7 @@
         <v>2.2218241000794645</v>
       </c>
       <c r="F3" t="n">
-        <v>4.985274676782191</v>
+        <v>7.4779120151732865</v>
       </c>
     </row>
     <row r="4">
@@ -1016,19 +1099,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>2.7717289643656184</v>
+        <v>4.157593446548429</v>
       </c>
       <c r="C4" t="n">
         <v>5.487695896288043</v>
       </c>
       <c r="D4" t="n">
-        <v>13.342788574548274</v>
+        <v>14.520093448773121</v>
       </c>
       <c r="E4" t="n">
         <v>4.529042338221229</v>
       </c>
       <c r="F4" t="n">
-        <v>14.1433409712841</v>
+        <v>16.319239582250887</v>
       </c>
     </row>
     <row r="5">
@@ -1056,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1.493464873537693</v>
+        <v>1.866831091922116</v>
       </c>
       <c r="C6" t="n">
-        <v>1.9876227567208447</v>
+        <v>2.650163675627793</v>
       </c>
       <c r="D6" t="n">
-        <v>6.360447359938186</v>
+        <v>9.540671039907279</v>
       </c>
       <c r="E6" t="n">
-        <v>2.2931307202540148</v>
+        <v>2.675319173629684</v>
       </c>
       <c r="F6" t="n">
         <v>4.829768407018328</v>
@@ -1076,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.495229285835466</v>
+        <v>1.993639047780621</v>
       </c>
       <c r="C7" t="n">
         <v>2.9814454511120068</v>
@@ -1085,10 +1168,10 @@
         <v>2.2016040145963847</v>
       </c>
       <c r="E7" t="n">
-        <v>4.817677567429529</v>
+        <v>5.1010703655136185</v>
       </c>
       <c r="F7" t="n">
-        <v>11.55522545109072</v>
+        <v>13.656175533107215</v>
       </c>
     </row>
     <row r="8">
@@ -1102,13 +1185,13 @@
         <v>4.478166565952635</v>
       </c>
       <c r="D8" t="n">
-        <v>2.246824548171066</v>
+        <v>4.493649096342132</v>
       </c>
       <c r="E8" t="n">
-        <v>3.163576166276831</v>
+        <v>3.464869134493672</v>
       </c>
       <c r="F8" t="n">
-        <v>4.696230388890599</v>
+        <v>9.392460777781197</v>
       </c>
     </row>
     <row r="9">
@@ -1119,7 +1202,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.285033964240941</v>
+        <v>7.332539624947765</v>
       </c>
       <c r="D9" t="n">
         <v>4.215954330483108</v>
@@ -1139,16 +1222,36 @@
         <v>1.6620371839734356</v>
       </c>
       <c r="C10" t="n">
-        <v>6.273698761763382</v>
+        <v>6.531521998548178</v>
       </c>
       <c r="D10" t="n">
         <v>3.4979700010425434</v>
       </c>
       <c r="E10" t="n">
-        <v>4.9036959274020395</v>
+        <v>5.1317748077463206</v>
       </c>
       <c r="F10" t="n">
         <v>14.707870477229225</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.7929269793554858</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.701019023502569</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.733928474547462</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.5376526011854477</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.362838702970825</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1302,7 @@
         <v>9.423219428705472</v>
       </c>
       <c r="F2" t="n">
-        <v>5.972705050018013</v>
+        <v>11.945410100036026</v>
       </c>
     </row>
     <row r="3">
@@ -1207,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.7750448557903606</v>
+        <v>3.330053826948433</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -1233,7 +1336,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.008345743612285</v>
+        <v>7.645468083940674</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -1247,7 +1350,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>2.2352406733877053</v>
+        <v>2.514645757561169</v>
       </c>
       <c r="C5" t="n">
         <v>2.5710102228807616</v>
@@ -1267,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0663014693133974</v>
+        <v>1.777169115522329</v>
       </c>
       <c r="C6" t="n">
         <v>2.6664156468306084</v>
@@ -1287,16 +1390,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>3.600199360624187</v>
+        <v>4.1540761853356</v>
       </c>
       <c r="C7" t="n">
         <v>2.599325316493001</v>
       </c>
       <c r="D7" t="n">
-        <v>22.161497815884367</v>
+        <v>27.70187226985546</v>
       </c>
       <c r="E7" t="n">
-        <v>25.311511224914412</v>
+        <v>28.475450128028715</v>
       </c>
       <c r="F7" t="n">
         <v>11.183047443209725</v>
@@ -1307,7 +1410,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2.9985797055877073</v>
+        <v>3.8553167643270525</v>
       </c>
       <c r="C8" t="n">
         <v>1.3069937631264725</v>
@@ -1333,7 +1436,7 @@
         <v>9.14725628272648</v>
       </c>
       <c r="D9" t="n">
-        <v>13.967211192065577</v>
+        <v>20.950816788098365</v>
       </c>
       <c r="E9" t="n">
         <v>11.43309624454484</v>
@@ -1347,7 +1450,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2.1753527321131085</v>
+        <v>4.350705464226217</v>
       </c>
       <c r="C10" t="n">
         <v>3.8700362437917932</v>
@@ -1360,6 +1463,26 @@
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.147031388086208</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.4660598700485257</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.44791968979332</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.751777259533332</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.997979807249038</v>
       </c>
     </row>
   </sheetData>
